--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive\Github\1D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive\Github\1D\1D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6BE804-8EF4-4E13-A6E9-E6146041EE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844CDF6E-F1B8-43F8-9F0A-F9B9C1559B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,23 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
   <si>
     <t>Alumnos 1º D</t>
   </si>
@@ -177,6 +166,9 @@
   </si>
   <si>
     <t>T14</t>
+  </si>
+  <si>
+    <t>Alumnos</t>
   </si>
 </sst>
 </file>
@@ -503,7 +495,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:M30"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,7 +506,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -564,7 +556,7 @@
         <v>13</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L27" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
+        <f t="shared" ref="L3:L21" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -801,7 +793,7 @@
         <v>13</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L27" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
+        <f t="shared" ref="L3:L21" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1037,7 +1029,7 @@
         <v>13</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L27" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
+        <f t="shared" ref="L3:L21" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1285,7 +1277,7 @@
         <v>13</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P27" si="0">IFERROR(SUM(B3:O3)/COUNT(B3:O3)*100, 0)</f>
+        <f t="shared" ref="P3:P21" si="0">IFERROR(SUM(B3:O3)/COUNT(B3:O3)*100, 0)</f>
         <v>0</v>
       </c>
     </row>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive\Github\1D\1D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/1D/1D/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844CDF6E-F1B8-43F8-9F0A-F9B9C1559B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{844CDF6E-F1B8-43F8-9F0A-F9B9C1559B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFE37128-87B7-4794-9B4B-A525319F90BC}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -30,102 +30,105 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
   <si>
+    <t>Alumnos</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>Resultados</t>
+  </si>
+  <si>
+    <t>Catalina Baquero</t>
+  </si>
+  <si>
+    <t>Noa Calvelo</t>
+  </si>
+  <si>
+    <t>Ziad Choudari</t>
+  </si>
+  <si>
+    <t>Martín Fuentes</t>
+  </si>
+  <si>
+    <t>Xiana González</t>
+  </si>
+  <si>
+    <t>Valeria Moldes</t>
+  </si>
+  <si>
+    <t>Breixo Muiños</t>
+  </si>
+  <si>
+    <t>Inés Nogueira</t>
+  </si>
+  <si>
+    <t>Helena Eisnam Okutu</t>
+  </si>
+  <si>
+    <t>Martín Pereira</t>
+  </si>
+  <si>
+    <t>Miguel Pérez</t>
+  </si>
+  <si>
+    <t>Aroa Perol</t>
+  </si>
+  <si>
+    <t>Jorge Porto</t>
+  </si>
+  <si>
+    <t>Adriana Pousada</t>
+  </si>
+  <si>
+    <t>Michael Steven Riascos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diego Rodríguez </t>
+  </si>
+  <si>
+    <t>Hugo Sanz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel Sardá </t>
+  </si>
+  <si>
+    <t>Ciara Sayans Paz</t>
+  </si>
+  <si>
+    <t>Sergio Virel</t>
+  </si>
+  <si>
     <t>Alumnos 1º D</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>S5</t>
-  </si>
-  <si>
-    <t>S6</t>
-  </si>
-  <si>
-    <t>S7</t>
-  </si>
-  <si>
-    <t>S8</t>
-  </si>
-  <si>
-    <t>S9</t>
-  </si>
-  <si>
-    <t>S10</t>
-  </si>
-  <si>
-    <t>Resultados</t>
-  </si>
-  <si>
-    <t>Catalina Baquero</t>
-  </si>
-  <si>
-    <t>Noa Calvelo</t>
-  </si>
-  <si>
-    <t>Ziad Choudari</t>
-  </si>
-  <si>
-    <t>Martín Fuentes</t>
-  </si>
-  <si>
-    <t>Xiana González</t>
-  </si>
-  <si>
-    <t>Valeria Moldes</t>
-  </si>
-  <si>
-    <t>Breixo Muiños</t>
-  </si>
-  <si>
-    <t>Inés Nogueira</t>
-  </si>
-  <si>
-    <t>Helena Eisnam Okutu</t>
-  </si>
-  <si>
-    <t>Martín Pereira</t>
-  </si>
-  <si>
-    <t>Miguel Pérez</t>
-  </si>
-  <si>
-    <t>Aroa Perol</t>
-  </si>
-  <si>
-    <t>Jorge Porto</t>
-  </si>
-  <si>
-    <t>Adriana Pousada</t>
-  </si>
-  <si>
-    <t>Michael Steven Riascos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Rodríguez </t>
-  </si>
-  <si>
-    <t>Hugo Sanz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manuel Sardá </t>
-  </si>
-  <si>
-    <t>Ciara Sayans Paz</t>
-  </si>
-  <si>
-    <t>Sergio Virel</t>
-  </si>
-  <si>
     <t>T1</t>
   </si>
   <si>
@@ -166,9 +169,6 @@
   </si>
   <si>
     <t>T14</t>
-  </si>
-  <si>
-    <t>Alumnos</t>
   </si>
 </sst>
 </file>
@@ -494,19 +494,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -546,24 +546,33 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L21" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -573,15 +582,21 @@
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -591,15 +606,21 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -609,24 +630,33 @@
       <c r="A9" t="s">
         <v>19</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -636,42 +666,57 @@
       <c r="A12" t="s">
         <v>22</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="L16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -681,15 +726,21 @@
       <c r="A17" t="s">
         <v>27</v>
       </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -699,27 +750,36 @@
       <c r="A19" t="s">
         <v>29</v>
       </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -733,17 +793,17 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:M32"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -783,24 +843,33 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L21" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -810,60 +879,81 @@
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -873,90 +963,120 @@
       <c r="A12" t="s">
         <v>22</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -969,17 +1089,17 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:L31"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1019,180 +1139,300 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L21" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1204,60 +1444,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A07B9-F651-41BC-A481-395AA628394B}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:Q32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P1" t="s">
         <v>11</v>
@@ -1267,180 +1507,240 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
       <c r="P2">
         <f>IFERROR(SUM(B2:O2)/COUNT(B2:O2)*100, 0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
       <c r="P3">
         <f t="shared" ref="P3:P21" si="0">IFERROR(SUM(B3:O3)/COUNT(B3:O3)*100, 0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
       <c r="P10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
       <c r="P11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="P12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
       <c r="P13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
       <c r="P14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
       <c r="P15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
       <c r="P16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
       <c r="P17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
       <c r="P18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
       <c r="P19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
       <c r="P20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
       <c r="P21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/1D/1D/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{844CDF6E-F1B8-43F8-9F0A-F9B9C1559B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFE37128-87B7-4794-9B4B-A525319F90BC}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{844CDF6E-F1B8-43F8-9F0A-F9B9C1559B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4249CFEC-2974-4B1B-953D-009292671028}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,20 @@
     <sheet name="Mago" sheetId="3" r:id="rId3"/>
     <sheet name="Ninja" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -494,17 +504,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -554,7 +564,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -566,7 +576,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -578,7 +588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -590,7 +600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -602,7 +612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -614,7 +624,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -626,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -638,7 +648,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -650,7 +660,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -662,7 +672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -674,7 +684,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -686,7 +696,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -698,7 +708,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -710,7 +720,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -722,7 +732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -734,7 +744,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -746,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -758,7 +768,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -770,7 +780,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -793,15 +803,15 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -839,7 +849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -851,7 +861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -863,7 +873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -875,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -887,7 +897,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -899,7 +909,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -911,7 +921,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -923,7 +933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -935,7 +945,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -947,7 +957,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -959,7 +969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -971,7 +981,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -983,7 +993,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -995,7 +1005,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1007,7 +1017,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1019,7 +1029,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1031,7 +1041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1043,7 +1053,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1055,7 +1065,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1067,7 +1077,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1092,12 +1102,12 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1135,7 +1145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1150,7 +1160,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1165,7 +1175,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1180,7 +1190,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1195,7 +1205,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1210,7 +1220,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1225,7 +1235,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1240,7 +1250,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1255,7 +1265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1270,7 +1280,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1285,7 +1295,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1300,7 +1310,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1315,7 +1325,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1330,7 +1340,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1345,7 +1355,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1360,7 +1370,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1375,7 +1385,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1390,7 +1400,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1405,7 +1415,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1420,7 +1430,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1444,16 +1454,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A07B9-F651-41BC-A481-395AA628394B}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1503,239 +1513,299 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="P2">
         <f>IFERROR(SUM(B2:O2)/COUNT(B2:O2)*100, 0)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="P3">
         <f t="shared" ref="P3:P21" si="0">IFERROR(SUM(B3:O3)/COUNT(B3:O3)*100, 0)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="P4">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="P5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="P7">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="P8">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="P9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
       <c r="P10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="P11">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
       <c r="P12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
       <c r="P13">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
       <c r="P14">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
       <c r="P15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>26</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
       <c r="P16">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
       <c r="P17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
       <c r="P18">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>29</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
       <c r="P19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>30</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
       <c r="P20">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>31</v>
       </c>
       <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
         <v>1</v>
       </c>
       <c r="P21">

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/1D/1D/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{844CDF6E-F1B8-43F8-9F0A-F9B9C1559B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4249CFEC-2974-4B1B-953D-009292671028}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{844CDF6E-F1B8-43F8-9F0A-F9B9C1559B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AC36A43-0D09-42F1-B710-1B84E5076F4F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,10 @@
     <sheet name="Mago" sheetId="3" r:id="rId3"/>
     <sheet name="Ninja" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -237,6 +227,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -504,17 +498,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,239 +546,299 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L21" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5">
+        <v>0.8</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
+      <c r="C6">
+        <v>0.8</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
+      <c r="C8">
+        <v>0.8</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
       <c r="L10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>0.5</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
       <c r="L20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
       <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
         <v>1</v>
       </c>
       <c r="L21">
@@ -803,15 +857,15 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -849,239 +903,299 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L21" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
       <c r="L10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
+      <c r="C13">
+        <v>0.7</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>0.7</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
+      <c r="C15">
+        <v>0.7</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
+      <c r="C18">
+        <v>0.7</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
       <c r="L20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
       <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
         <v>1</v>
       </c>
       <c r="L21">
@@ -1099,15 +1213,15 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1145,7 +1259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1155,12 +1269,15 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1170,12 +1287,15 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L21" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1185,12 +1305,15 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1200,12 +1323,15 @@
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1215,12 +1341,15 @@
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="D6">
+        <v>0.8</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1230,12 +1359,15 @@
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1245,12 +1377,15 @@
       <c r="C8">
         <v>1</v>
       </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1260,12 +1395,15 @@
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1275,12 +1413,15 @@
       <c r="C10">
         <v>1</v>
       </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
       <c r="L10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1290,12 +1431,15 @@
       <c r="C11">
         <v>1</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1305,12 +1449,15 @@
       <c r="C12">
         <v>1</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1320,12 +1467,15 @@
       <c r="C13">
         <v>1</v>
       </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1335,12 +1485,15 @@
       <c r="C14">
         <v>1</v>
       </c>
+      <c r="D14">
+        <v>0.8</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1350,12 +1503,15 @@
       <c r="C15">
         <v>1</v>
       </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1365,12 +1521,15 @@
       <c r="C16">
         <v>1</v>
       </c>
+      <c r="D16">
+        <v>0.5</v>
+      </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1380,12 +1539,15 @@
       <c r="C17">
         <v>1</v>
       </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1395,12 +1557,15 @@
       <c r="C18">
         <v>1</v>
       </c>
+      <c r="D18">
+        <v>0.5</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1410,12 +1575,15 @@
       <c r="C19">
         <v>1</v>
       </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1425,12 +1593,15 @@
       <c r="C20">
         <v>1</v>
       </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
       <c r="L20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1438,6 +1609,9 @@
         <v>1</v>
       </c>
       <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
         <v>1</v>
       </c>
       <c r="L21">
@@ -1454,16 +1628,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A07B9-F651-41BC-A481-395AA628394B}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1513,7 +1687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1528,7 +1702,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1543,7 +1717,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1558,7 +1732,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1573,7 +1747,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1588,7 +1762,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1603,7 +1777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1618,7 +1792,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1633,7 +1807,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1648,7 +1822,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1663,7 +1837,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1678,7 +1852,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1693,7 +1867,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1708,7 +1882,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1723,7 +1897,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1738,7 +1912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1753,7 +1927,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1768,7 +1942,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1783,7 +1957,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1798,7 +1972,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/1D/1D/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{844CDF6E-F1B8-43F8-9F0A-F9B9C1559B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AC36A43-0D09-42F1-B710-1B84E5076F4F}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{844CDF6E-F1B8-43F8-9F0A-F9B9C1559B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B653087-5830-4604-8E2B-CE1693214E93}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="48">
   <si>
     <t>Alumnos</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>T14</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
   </si>
 </sst>
 </file>
@@ -230,6 +233,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -496,19 +503,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,7 +553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -561,7 +568,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -576,7 +583,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -591,7 +598,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -606,7 +613,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -621,7 +628,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -636,7 +643,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -651,7 +658,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -666,7 +673,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -681,7 +688,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -696,7 +703,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -711,7 +718,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -726,7 +733,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -741,7 +748,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -756,7 +763,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -771,7 +778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -786,7 +793,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -801,7 +808,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -816,7 +823,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -831,7 +838,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -844,6 +851,11 @@
       <c r="L21">
         <f t="shared" si="0"/>
         <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -854,18 +866,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A2E164-804C-4A26-8EDD-0B1C83E35910}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -903,7 +915,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -918,7 +930,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -933,7 +945,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -948,7 +960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -963,7 +975,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -978,7 +990,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -993,7 +1005,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1008,7 +1020,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1023,7 +1035,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1038,7 +1050,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1053,7 +1065,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1068,7 +1080,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1083,7 +1095,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1098,7 +1110,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1113,7 +1125,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1128,7 +1140,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1143,7 +1155,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1158,7 +1170,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1173,7 +1185,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1188,7 +1200,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1201,6 +1213,11 @@
       <c r="L21">
         <f t="shared" si="0"/>
         <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1210,18 +1227,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE015ABD-4175-4D18-A09E-4C4A7888DCD3}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1259,7 +1276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1277,7 +1294,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1295,7 +1312,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1313,7 +1330,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1331,7 +1348,7 @@
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1349,7 +1366,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1367,7 +1384,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1385,7 +1402,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1403,7 +1420,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1421,7 +1438,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1439,7 +1456,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1457,7 +1474,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1475,7 +1492,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1493,7 +1510,7 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1511,7 +1528,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1529,7 +1546,7 @@
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1547,7 +1564,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1565,7 +1582,7 @@
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1583,7 +1600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1601,7 +1618,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1617,6 +1634,11 @@
       <c r="L21">
         <f t="shared" si="0"/>
         <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1626,18 +1648,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A07B9-F651-41BC-A481-395AA628394B}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1687,7 +1709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1702,7 +1724,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1717,7 +1739,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1732,7 +1754,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1747,7 +1769,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1762,7 +1784,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1777,7 +1799,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1792,7 +1814,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1807,7 +1829,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1822,7 +1844,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1837,7 +1859,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1852,7 +1874,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1867,7 +1889,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1882,7 +1904,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1897,7 +1919,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1912,7 +1934,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1927,7 +1949,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1942,7 +1964,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1957,7 +1979,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1972,7 +1994,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1985,6 +2007,11 @@
       <c r="P21">
         <f t="shared" si="0"/>
         <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/1D/1D/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{844CDF6E-F1B8-43F8-9F0A-F9B9C1559B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B653087-5830-4604-8E2B-CE1693214E93}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{844CDF6E-F1B8-43F8-9F0A-F9B9C1559B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF709060-824B-4A53-8229-9C90F12D9076}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -237,6 +237,10 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -505,17 +509,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -563,12 +567,15 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -578,12 +585,15 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L21" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -593,12 +603,15 @@
       <c r="C4">
         <v>0.5</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -608,12 +621,15 @@
       <c r="C5">
         <v>0.8</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -623,12 +639,15 @@
       <c r="C6">
         <v>0.8</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -638,12 +657,15 @@
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -653,12 +675,15 @@
       <c r="C8">
         <v>0.8</v>
       </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -668,12 +693,15 @@
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -683,12 +711,15 @@
       <c r="C10">
         <v>1</v>
       </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
       <c r="L10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -698,12 +729,15 @@
       <c r="C11">
         <v>1</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -713,12 +747,15 @@
       <c r="C12">
         <v>1</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -728,12 +765,15 @@
       <c r="C13">
         <v>1</v>
       </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -743,12 +783,15 @@
       <c r="C14">
         <v>0.5</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -758,12 +801,15 @@
       <c r="C15">
         <v>1</v>
       </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -773,12 +819,15 @@
       <c r="C16">
         <v>0.5</v>
       </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -788,12 +837,15 @@
       <c r="C17">
         <v>1</v>
       </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -803,12 +855,15 @@
       <c r="C18">
         <v>1</v>
       </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -818,12 +873,15 @@
       <c r="C19">
         <v>1</v>
       </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -833,12 +891,15 @@
       <c r="C20">
         <v>1</v>
       </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
       <c r="L20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -848,14 +909,20 @@
       <c r="C21">
         <v>1</v>
       </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
       <c r="L21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>47</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -868,16 +935,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A2E164-804C-4A26-8EDD-0B1C83E35910}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -915,7 +982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -925,12 +992,15 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -940,12 +1010,15 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L21" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -955,12 +1028,15 @@
       <c r="C4">
         <v>0.5</v>
       </c>
+      <c r="D4">
+        <v>0.4</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -970,12 +1046,15 @@
       <c r="C5">
         <v>0.5</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -985,12 +1064,15 @@
       <c r="C6">
         <v>0.5</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1000,12 +1082,15 @@
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1015,12 +1100,15 @@
       <c r="C8">
         <v>1</v>
       </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1030,12 +1118,15 @@
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1045,12 +1136,15 @@
       <c r="C10">
         <v>1</v>
       </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
       <c r="L10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1060,12 +1154,15 @@
       <c r="C11">
         <v>1</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1075,12 +1172,15 @@
       <c r="C12">
         <v>1</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1090,12 +1190,15 @@
       <c r="C13">
         <v>0.7</v>
       </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>73.333333333333343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1105,12 +1208,15 @@
       <c r="C14">
         <v>0.7</v>
       </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>56.666666666666664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1120,12 +1226,15 @@
       <c r="C15">
         <v>0.7</v>
       </c>
+      <c r="D15">
+        <v>0.5</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>73.333333333333343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1135,12 +1244,15 @@
       <c r="C16">
         <v>0.5</v>
       </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1150,12 +1262,15 @@
       <c r="C17">
         <v>1</v>
       </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1165,12 +1280,15 @@
       <c r="C18">
         <v>0.7</v>
       </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1180,12 +1298,15 @@
       <c r="C19">
         <v>1</v>
       </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1195,12 +1316,15 @@
       <c r="C20">
         <v>1</v>
       </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
       <c r="L20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1210,14 +1334,20 @@
       <c r="C21">
         <v>1</v>
       </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
       <c r="L21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>47</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1233,12 +1363,12 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1276,7 +1406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1294,7 +1424,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1312,7 +1442,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1330,7 +1460,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1348,7 +1478,7 @@
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1366,7 +1496,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1384,7 +1514,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1402,7 +1532,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1420,7 +1550,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1438,7 +1568,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1456,7 +1586,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1474,7 +1604,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1492,7 +1622,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1510,7 +1640,7 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1528,7 +1658,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1546,7 +1676,7 @@
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1564,7 +1694,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1582,7 +1712,7 @@
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1600,7 +1730,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1618,7 +1748,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1636,7 +1766,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1650,16 +1780,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A07B9-F651-41BC-A481-395AA628394B}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1709,7 +1839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1719,12 +1849,15 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
       <c r="P2">
         <f>IFERROR(SUM(B2:O2)/COUNT(B2:O2)*100, 0)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1734,12 +1867,15 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="P3">
         <f t="shared" ref="P3:P21" si="0">IFERROR(SUM(B3:O3)/COUNT(B3:O3)*100, 0)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1749,12 +1885,15 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1764,12 +1903,15 @@
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
       <c r="P5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1779,12 +1921,15 @@
       <c r="C6">
         <v>0</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1794,12 +1939,15 @@
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
       <c r="P7">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1809,12 +1957,15 @@
       <c r="C8">
         <v>1</v>
       </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
       <c r="P8">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1824,12 +1975,15 @@
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
       <c r="P9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1839,12 +1993,15 @@
       <c r="C10">
         <v>1</v>
       </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
       <c r="P10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1854,12 +2011,15 @@
       <c r="C11">
         <v>1</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
       <c r="P11">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1869,12 +2029,15 @@
       <c r="C12">
         <v>1</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
       <c r="P12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1884,12 +2047,15 @@
       <c r="C13">
         <v>1</v>
       </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
       <c r="P13">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1899,12 +2065,15 @@
       <c r="C14">
         <v>1</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
       <c r="P14">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1914,12 +2083,15 @@
       <c r="C15">
         <v>1</v>
       </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
       <c r="P15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1929,12 +2101,15 @@
       <c r="C16">
         <v>1</v>
       </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
       <c r="P16">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1944,12 +2119,15 @@
       <c r="C17">
         <v>1</v>
       </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
       <c r="P17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1959,12 +2137,15 @@
       <c r="C18">
         <v>1</v>
       </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
       <c r="P18">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1974,12 +2155,15 @@
       <c r="C19">
         <v>1</v>
       </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
       <c r="P19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1989,12 +2173,15 @@
       <c r="C20">
         <v>0</v>
       </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
       <c r="P20">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2004,14 +2191,20 @@
       <c r="C21">
         <v>1</v>
       </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
       <c r="P21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>47</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/1D/1D/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{844CDF6E-F1B8-43F8-9F0A-F9B9C1559B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF709060-824B-4A53-8229-9C90F12D9076}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{844CDF6E-F1B8-43F8-9F0A-F9B9C1559B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F448C5F6-7B69-4E4C-B6C4-77B48B975A9A}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,28 @@
     <sheet name="Mago" sheetId="3" r:id="rId3"/>
     <sheet name="Ninja" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="49">
   <si>
     <t>Alumnos</t>
   </si>
@@ -172,6 +183,9 @@
   </si>
   <si>
     <t>Gabriel</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -230,18 +244,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -509,17 +511,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.17578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -575,7 +577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -593,7 +595,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -611,7 +613,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -629,7 +631,7 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -647,7 +649,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -665,7 +667,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -683,7 +685,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -701,7 +703,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -719,7 +721,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -737,7 +739,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -755,7 +757,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -773,7 +775,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -791,7 +793,7 @@
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -809,7 +811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -827,7 +829,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -845,7 +847,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -863,7 +865,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -881,7 +883,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -899,7 +901,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -917,7 +919,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -939,12 +941,12 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.17578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -982,7 +984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1000,7 +1002,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1018,7 +1020,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1036,7 +1038,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1054,7 +1056,7 @@
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1072,7 +1074,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1090,7 +1092,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1108,7 +1110,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1126,7 +1128,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1144,7 +1146,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1162,7 +1164,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1180,7 +1182,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1198,7 +1200,7 @@
         <v>73.333333333333343</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1216,7 +1218,7 @@
         <v>56.666666666666664</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1234,7 +1236,7 @@
         <v>73.333333333333343</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1252,7 +1254,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1270,7 +1272,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1288,7 +1290,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1306,7 +1308,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1324,7 +1326,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1342,7 +1344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1359,16 +1361,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE015ABD-4175-4D18-A09E-4C4A7888DCD3}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.17578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1406,7 +1408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1424,7 +1426,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1442,7 +1444,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1460,7 +1462,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1478,7 +1480,7 @@
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1496,7 +1498,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1514,7 +1516,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1527,12 +1529,15 @@
       <c r="D8">
         <v>1</v>
       </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1550,7 +1555,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1563,12 +1568,15 @@
       <c r="D10">
         <v>1</v>
       </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
       <c r="L10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1581,12 +1589,15 @@
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1599,12 +1610,15 @@
       <c r="D12">
         <v>1</v>
       </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1617,12 +1631,15 @@
       <c r="D13">
         <v>1</v>
       </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1640,7 +1657,7 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1653,12 +1670,15 @@
       <c r="D15">
         <v>1</v>
       </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1671,12 +1691,15 @@
       <c r="D16">
         <v>0.5</v>
       </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>83.333333333333343</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1689,12 +1712,15 @@
       <c r="D17">
         <v>1</v>
       </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1707,12 +1733,15 @@
       <c r="D18">
         <v>0.5</v>
       </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>83.333333333333343</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1730,7 +1759,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1743,12 +1772,15 @@
       <c r="D20">
         <v>1</v>
       </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
       <c r="L20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1766,9 +1798,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>47</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1784,12 +1819,12 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1839,7 +1874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1857,7 +1892,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1875,7 +1910,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1893,7 +1928,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1911,7 +1946,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1929,7 +1964,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1947,7 +1982,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1965,7 +2000,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1983,7 +2018,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2001,7 +2036,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2019,7 +2054,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2037,7 +2072,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2055,7 +2090,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2073,7 +2108,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2091,7 +2126,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2109,7 +2144,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2127,7 +2162,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2145,7 +2180,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2163,7 +2198,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2181,7 +2216,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2199,7 +2234,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>47</v>
       </c>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/1D/1D/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{844CDF6E-F1B8-43F8-9F0A-F9B9C1559B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F448C5F6-7B69-4E4C-B6C4-77B48B975A9A}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{844CDF6E-F1B8-43F8-9F0A-F9B9C1559B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADB0EB60-0D42-A143-ABBC-C14CFABBCC49}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="50">
   <si>
     <t>Alumnos</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>0.5</t>
+  </si>
+  <si>
+    <t>Ñ</t>
   </si>
 </sst>
 </file>
@@ -512,7 +515,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -590,6 +593,9 @@
       <c r="D3">
         <v>1</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L21" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
         <v>100</v>
@@ -608,9 +614,12 @@
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -698,6 +707,9 @@
       <c r="D9">
         <v>1</v>
       </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -752,6 +764,9 @@
       <c r="D12">
         <v>1</v>
       </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -788,9 +803,15 @@
       <c r="D14">
         <v>1</v>
       </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>83.333333333333343</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -806,6 +827,9 @@
       <c r="D15">
         <v>1</v>
       </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -860,9 +884,12 @@
       <c r="D18">
         <v>1</v>
       </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -878,6 +905,12 @@
       <c r="D19">
         <v>1</v>
       </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -912,6 +945,9 @@
         <v>1</v>
       </c>
       <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>1</v>
       </c>
       <c r="L21">
@@ -937,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A2E164-804C-4A26-8EDD-0B1C83E35910}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1033,9 +1069,12 @@
       <c r="D4">
         <v>0.4</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1069,9 +1108,12 @@
       <c r="D6">
         <v>0</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1087,9 +1129,12 @@
       <c r="D7">
         <v>1</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1141,9 +1186,12 @@
       <c r="D10">
         <v>1</v>
       </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1159,9 +1207,12 @@
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1213,9 +1264,15 @@
       <c r="D14">
         <v>0</v>
       </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>56.666666666666664</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1303,9 +1360,12 @@
       <c r="D19">
         <v>1</v>
       </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1361,7 +1421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE015ABD-4175-4D18-A09E-4C4A7888DCD3}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/1D/1D/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{844CDF6E-F1B8-43F8-9F0A-F9B9C1559B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADB0EB60-0D42-A143-ABBC-C14CFABBCC49}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{844CDF6E-F1B8-43F8-9F0A-F9B9C1559B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95315BD0-0937-BC47-9E1B-F20603D84924}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="50">
   <si>
     <t>Alumnos</t>
   </si>
@@ -186,9 +186,6 @@
   </si>
   <si>
     <t>0.5</t>
-  </si>
-  <si>
-    <t>Ñ</t>
   </si>
 </sst>
 </file>
@@ -514,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -596,6 +593,9 @@
       <c r="E3">
         <v>1</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L21" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
         <v>100</v>
@@ -710,6 +710,9 @@
       <c r="E9">
         <v>1</v>
       </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -746,9 +749,12 @@
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -767,6 +773,9 @@
       <c r="E12">
         <v>1</v>
       </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -809,9 +818,12 @@
       <c r="F14">
         <v>1</v>
       </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>91.666666666666657</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -830,6 +842,9 @@
       <c r="E15">
         <v>1</v>
       </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -864,6 +879,9 @@
         <v>1</v>
       </c>
       <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>1</v>
       </c>
       <c r="L17">
@@ -973,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A2E164-804C-4A26-8EDD-0B1C83E35910}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1072,9 +1090,18 @@
       <c r="E4">
         <v>0</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>22.5</v>
+        <v>12.857142857142859</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1210,9 +1237,12 @@
       <c r="E11">
         <v>0</v>
       </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1266,9 +1296,6 @@
       </c>
       <c r="E14">
         <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
@@ -1876,7 +1903,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
